--- a/bonus/Sales_Data.xlsx
+++ b/bonus/Sales_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\5-Bonus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\supercharge-excel-workshop\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6825B-88A7-4FEB-BD55-623C91B1FA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E855A1-E0F7-4F8B-B1F5-DFE8B927BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Net Working Capital" sheetId="2" r:id="rId1"/>
@@ -339,22 +339,22 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,7 +823,10 @@
   <dimension ref="B2:N111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,19 +848,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="2:14" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -894,7 +897,7 @@
       <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4866,76 +4869,76 @@
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="11" t="s">
+      <c r="C109" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="11">
         <v>723</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>7</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="12">
         <f t="shared" si="7"/>
         <v>5061</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="11">
         <v>759.15000000000009</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="12">
         <f t="shared" si="5"/>
         <v>4301.8500000000004</v>
       </c>
-      <c r="K109" s="12">
+      <c r="K109" s="11">
         <v>3615</v>
       </c>
-      <c r="L109" s="14">
+      <c r="L109" s="13">
         <f t="shared" si="6"/>
         <v>686.85000000000036</v>
       </c>
     </row>
     <row r="110" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="15">
-        <f>+SUM(F5:F109)</f>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="14">
+        <f t="shared" ref="F110:L110" si="8">+SUM(F5:F109)</f>
         <v>185137.5</v>
       </c>
-      <c r="G110" s="15">
-        <f>+SUM(G5:G109)</f>
+      <c r="G110" s="14">
+        <f t="shared" si="8"/>
         <v>12435</v>
       </c>
-      <c r="H110" s="15">
-        <f>+SUM(H5:H109)</f>
+      <c r="H110" s="14">
+        <f t="shared" si="8"/>
         <v>21376777.5</v>
       </c>
-      <c r="I110" s="15">
-        <f>+SUM(I5:I109)</f>
+      <c r="I110" s="14">
+        <f t="shared" si="8"/>
         <v>1665011.3949999998</v>
       </c>
-      <c r="J110" s="15">
-        <f>+SUM(J5:J109)</f>
+      <c r="J110" s="14">
+        <f t="shared" si="8"/>
         <v>19711766.105</v>
       </c>
-      <c r="K110" s="15">
-        <f>+SUM(K5:K109)</f>
+      <c r="K110" s="14">
+        <f t="shared" si="8"/>
         <v>16986209</v>
       </c>
-      <c r="L110" s="15">
-        <f>+SUM(L5:L109)</f>
+      <c r="L110" s="14">
+        <f t="shared" si="8"/>
         <v>2725557.1049999995</v>
       </c>
     </row>
